--- a/data_analyzed/Work Ratio/Work Ratio_games_3q.xlsx
+++ b/data_analyzed/Work Ratio/Work Ratio_games_3q.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,114 +441,234 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Daud</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DeLeo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Diedrichsen</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Forman</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Hartsch</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>LaCroix</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Larripa</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Ricci</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Smyth</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>44801</v>
       </c>
       <c r="B2" t="n">
+        <v>18.1277</v>
+      </c>
+      <c r="C2" t="n">
         <v>42.8596</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1.1234</v>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>21.2426</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>39.2903</v>
+      </c>
       <c r="J2" t="n">
+        <v>28.1082</v>
+      </c>
+      <c r="K2" t="n">
+        <v>21.2426</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>27.0615</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>41.5284</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.9484</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>31.8298</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
         <v>16.7135</v>
       </c>
-      <c r="K2" t="n">
+      <c r="U2" t="n">
+        <v>31.1234</v>
+      </c>
+      <c r="V2" t="n">
         <v>10.6629</v>
       </c>
-      <c r="L2" t="n">
+      <c r="W2" t="n">
+        <v>18.492</v>
+      </c>
+      <c r="X2" t="n">
         <v>32.4483</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="Y2" t="n">
+        <v>1.1659</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
         <v>42.2128</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>41.1149</v>
+      </c>
+      <c r="AE2" t="n">
         <v>15.5817</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>19.9302</v>
       </c>
     </row>
     <row r="3">
@@ -556,35 +676,75 @@
         <v>44804</v>
       </c>
       <c r="B3" t="n">
+        <v>12.6943</v>
+      </c>
+      <c r="C3" t="n">
         <v>44.5622</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>1.1277</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.7347</v>
-      </c>
+      <c r="E3" t="n">
+        <v>4.0407</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>55.1256</v>
+      </c>
       <c r="J3" t="n">
-        <v>20.7518</v>
+        <v>38.271</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2307</v>
-      </c>
-      <c r="L3" t="n">
-        <v>43.9774</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>46.8347</v>
-      </c>
+        <v>0.7347</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>41.572</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
+        <v>4.7839</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>43.4942</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>20.7518</v>
+      </c>
+      <c r="U3" t="n">
+        <v>22.3561</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2307</v>
+      </c>
+      <c r="W3" t="n">
+        <v>38.0745</v>
+      </c>
+      <c r="X3" t="n">
+        <v>43.9774</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.8201000000000001</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>46.8347</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>42.3885</v>
+      </c>
+      <c r="AE3" t="n">
         <v>0.6237</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13.523</v>
       </c>
     </row>
     <row r="4">
@@ -592,35 +752,77 @@
         <v>44808</v>
       </c>
       <c r="B4" t="n">
+        <v>11.3643</v>
+      </c>
+      <c r="C4" t="n">
         <v>36.165</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0.2625</v>
-      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3844</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>37.194</v>
+      </c>
       <c r="J4" t="n">
+        <v>11.4487</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2625</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>30.6892</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>41.6971</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>31.7112</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
         <v>30.3047</v>
       </c>
-      <c r="K4" t="n">
+      <c r="U4" t="n">
+        <v>40.3751</v>
+      </c>
+      <c r="V4" t="n">
         <v>12.997</v>
       </c>
-      <c r="L4" t="n">
+      <c r="W4" t="n">
+        <v>19.1767</v>
+      </c>
+      <c r="X4" t="n">
         <v>36.0431</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="Y4" t="n">
+        <v>16.1665</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
         <v>34.5898</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>40.0656</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0.6939</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>29.4327</v>
       </c>
     </row>
     <row r="5">
@@ -628,313 +830,683 @@
         <v>44813</v>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>46.4</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.9344</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>25.8221</v>
+      </c>
       <c r="J5" t="n">
+        <v>17.1956</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>33.9165</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>42.4176</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>41.3875</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>28.8967</v>
       </c>
-      <c r="K5" t="n">
+      <c r="U5" t="n">
+        <v>35.7658</v>
+      </c>
+      <c r="V5" t="n">
         <v>25.3538</v>
       </c>
-      <c r="L5" t="n">
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
         <v>36.2022</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
         <v>44.5841</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>43.9599</v>
+      </c>
+      <c r="AE5" t="n">
         <v>28.02</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44815</v>
       </c>
       <c r="B6" t="n">
+        <v>8.3996</v>
+      </c>
+      <c r="C6" t="n">
         <v>40.3696</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.0151</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>4.8474</v>
-      </c>
+      <c r="E6" t="n">
+        <v>2.2874</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>38.9078</v>
+      </c>
       <c r="J6" t="n">
+        <v>18.7169</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.8474</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>15.5343</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>40.4636</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.4241</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>35.0829</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>43.0162</v>
       </c>
-      <c r="K6" t="n">
+      <c r="U6" t="n">
+        <v>18.5867</v>
+      </c>
+      <c r="V6" t="n">
         <v>48.5533</v>
       </c>
-      <c r="L6" t="n">
+      <c r="W6" t="n">
+        <v>26.9863</v>
+      </c>
+      <c r="X6" t="n">
         <v>31.0559</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
         <v>21.7148</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>0.4394</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>41.5512</v>
+      </c>
+      <c r="AE6" t="n">
         <v>44.4672</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>44820</v>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
         <v>35.5213</v>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E7" t="n">
+        <v>2.9807</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>48.9365</v>
+      </c>
       <c r="J7" t="n">
+        <v>17.9903</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>11.1189</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.1259</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>38.1429</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>42.5763</v>
       </c>
-      <c r="K7" t="n">
+      <c r="U7" t="n">
+        <v>35.7723</v>
+      </c>
+      <c r="V7" t="n">
         <v>40.8229</v>
       </c>
-      <c r="L7" t="n">
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
         <v>32.8249</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="Y7" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
         <v>36.5042</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>46.7335</v>
+      </c>
+      <c r="AE7" t="n">
         <v>17.613</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>44822</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>44.4005</v>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>3.7193</v>
-      </c>
+      <c r="E8" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>32.2676</v>
+      </c>
       <c r="J8" t="n">
+        <v>16.3063</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.7193</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>25.8393</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>42.4569</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.8427</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>42.4773</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>53.5128</v>
       </c>
-      <c r="K8" t="n">
+      <c r="U8" t="n">
+        <v>29.7854</v>
+      </c>
+      <c r="V8" t="n">
         <v>38.9483</v>
       </c>
-      <c r="L8" t="n">
+      <c r="W8" t="n">
+        <v>27.3959</v>
+      </c>
+      <c r="X8" t="n">
         <v>35.1704</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="Y8" t="n">
+        <v>1.9185</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
         <v>40.382</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>2.1373</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>52.2635</v>
+      </c>
+      <c r="AE8" t="n">
         <v>13.5729</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>44827</v>
       </c>
       <c r="B9" t="n">
+        <v>53.6905</v>
+      </c>
+      <c r="C9" t="n">
         <v>49.4609</v>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>1.3685</v>
-      </c>
+      <c r="E9" t="n">
+        <v>5.0589</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>39.164</v>
+      </c>
       <c r="J9" t="n">
+        <v>21.9126</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.3685</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>17.7807</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>56.1785</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.4644</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>33.2145</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>43.5349</v>
       </c>
-      <c r="K9" t="n">
+      <c r="U9" t="n">
+        <v>24.6579</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.4513</v>
       </c>
-      <c r="L9" t="n">
+      <c r="W9" t="n">
+        <v>26.3559</v>
+      </c>
+      <c r="X9" t="n">
         <v>27.3285</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="Y9" t="n">
+        <v>0.1327</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
         <v>37.5881</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>0.4727</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>38.7295</v>
+      </c>
+      <c r="AE9" t="n">
         <v>1.1612</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>44829</v>
       </c>
       <c r="B10" t="n">
+        <v>8.0116</v>
+      </c>
+      <c r="C10" t="n">
         <v>36.5174</v>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>0.0126</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>11.037</v>
+      </c>
       <c r="J10" t="n">
+        <v>0.09429999999999999</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>0.1258</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>0.1132</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>34.0901</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>42.5822</v>
       </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
+        <v>15.5201</v>
+      </c>
+      <c r="V10" t="n">
         <v>40.4855</v>
       </c>
-      <c r="L10" t="n">
+      <c r="W10" t="n">
+        <v>33.304</v>
+      </c>
+      <c r="X10" t="n">
         <v>30.1428</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="Y10" t="n">
+        <v>0.3522</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
         <v>32.935</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
+        <v>0.1635</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>40.9571</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>44834</v>
       </c>
       <c r="B11" t="n">
+        <v>1.2127</v>
+      </c>
+      <c r="C11" t="n">
         <v>45.0873</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>11.3712</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>1.1046</v>
-      </c>
+      <c r="E11" t="n">
+        <v>4.1017</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>32.7283</v>
+      </c>
       <c r="J11" t="n">
+        <v>11.966</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.1046</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>17.7598</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>53.4296</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.1046</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>35.7717</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>36.1038</v>
       </c>
-      <c r="K11" t="n">
+      <c r="U11" t="n">
+        <v>5.3538</v>
+      </c>
+      <c r="V11" t="n">
         <v>47.4741</v>
       </c>
-      <c r="L11" t="n">
+      <c r="W11" t="n">
+        <v>44.465</v>
+      </c>
+      <c r="X11" t="n">
         <v>37.6207</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="Y11" t="n">
+        <v>1.7998</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
         <v>34.25</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>0.2395</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>40.2132</v>
+      </c>
+      <c r="AE11" t="n">
         <v>38.6404</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>44836</v>
       </c>
       <c r="B12" t="n">
+        <v>40.8402</v>
+      </c>
+      <c r="C12" t="n">
         <v>37.0242</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>2.4952</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>1.8043</v>
-      </c>
+      <c r="E12" t="n">
+        <v>4.1091</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>47.3217</v>
+      </c>
       <c r="J12" t="n">
+        <v>31.9636</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.8043</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>16.2814</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>23.9515</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.6213</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>37.5881</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
         <v>47.5717</v>
       </c>
-      <c r="K12" t="n">
+      <c r="U12" t="n">
+        <v>14.773</v>
+      </c>
+      <c r="V12" t="n">
         <v>10.3609</v>
       </c>
-      <c r="L12" t="n">
+      <c r="W12" t="n">
+        <v>1.7339</v>
+      </c>
+      <c r="X12" t="n">
         <v>28.7074</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="Y12" t="n">
+        <v>1.6001</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
         <v>29.4827</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>2.5377</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>41.7988</v>
+      </c>
+      <c r="AE12" t="n">
         <v>19.8421</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>44841</v>
       </c>
       <c r="B13" t="n">
+        <v>47.2827</v>
+      </c>
+      <c r="C13" t="n">
         <v>38.6267</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>2.6808</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.1096</v>
-      </c>
+      <c r="E13" t="n">
+        <v>3.1992</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>34.6896</v>
+      </c>
       <c r="J13" t="n">
+        <v>8.853199999999999</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1096</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>8.713800000000001</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>39.1425</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0292</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>21.4727</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
         <v>43.2401</v>
       </c>
-      <c r="K13" t="n">
+      <c r="U13" t="n">
+        <v>14.2429</v>
+      </c>
+      <c r="V13" t="n">
         <v>7.6552</v>
       </c>
-      <c r="L13" t="n">
+      <c r="W13" t="n">
+        <v>11.176</v>
+      </c>
+      <c r="X13" t="n">
         <v>26.9175</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="Y13" t="n">
+        <v>0.0219</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
         <v>29.7787</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>0.0438</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>37.5575</v>
+      </c>
+      <c r="AE13" t="n">
         <v>33.5267</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -942,35 +1514,79 @@
         <v>44843</v>
       </c>
       <c r="B14" t="n">
+        <v>37.9497</v>
+      </c>
+      <c r="C14" t="n">
         <v>37.6346</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>3.6705</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>1.0548</v>
-      </c>
+      <c r="E14" t="n">
+        <v>4.3852</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>29.9884</v>
+      </c>
       <c r="J14" t="n">
+        <v>1.2498</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.0548</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>11.0894</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>47.9156</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.4521</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>29.6872</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
         <v>49.227</v>
       </c>
-      <c r="K14" t="n">
+      <c r="U14" t="n">
+        <v>33.7235</v>
+      </c>
+      <c r="V14" t="n">
         <v>10.0636</v>
       </c>
-      <c r="L14" t="n">
+      <c r="W14" t="n">
+        <v>19.7081</v>
+      </c>
+      <c r="X14" t="n">
         <v>29.4972</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="Y14" t="n">
+        <v>0.5563</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
         <v>32.228</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>1.9289</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>42.3421</v>
+      </c>
+      <c r="AE14" t="n">
         <v>9.821400000000001</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8.966100000000001</v>
       </c>
     </row>
     <row r="15">
@@ -978,71 +1594,157 @@
         <v>44848</v>
       </c>
       <c r="B15" t="n">
+        <v>0.1302</v>
+      </c>
+      <c r="C15" t="n">
         <v>40.4097</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>0.008699999999999999</v>
-      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.5536</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>51.9788</v>
+      </c>
       <c r="J15" t="n">
+        <v>25.9105</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>14.5114</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>47.0792</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.1649</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
         <v>48.568</v>
       </c>
-      <c r="K15" t="n">
+      <c r="U15" t="n">
+        <v>32.1066</v>
+      </c>
+      <c r="V15" t="n">
         <v>5.1814</v>
       </c>
-      <c r="L15" t="n">
+      <c r="W15" t="n">
+        <v>25.0651</v>
+      </c>
+      <c r="X15" t="n">
         <v>29.3985</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
         <v>34.7943</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>42.1628</v>
+      </c>
+      <c r="AE15" t="n">
         <v>25.933</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>44850</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
         <v>36.5807</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>1.3293</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>0.0429</v>
-      </c>
+      <c r="E16" t="n">
+        <v>5.1244</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" t="n">
+        <v>24.7499</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0429</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>5.7104</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>42.0812</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>32.2327</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
         <v>46.8444</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="U16" t="n">
+        <v>36.1707</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>43.5106</v>
+      </c>
+      <c r="X16" t="n">
         <v>25.3788</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
         <v>28.1875</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>0.0214</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>46.1764</v>
+      </c>
+      <c r="AE16" t="n">
         <v>37.6787</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1050,35 +1752,79 @@
         <v>44855</v>
       </c>
       <c r="B17" t="n">
+        <v>48.4165</v>
+      </c>
+      <c r="C17" t="n">
         <v>42.3199</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>3.4507</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>10.0313</v>
-      </c>
+      <c r="E17" t="n">
+        <v>2.8571</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1.1531</v>
+      </c>
       <c r="J17" t="n">
+        <v>7.9855</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10.0313</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>13.5468</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>31.6582</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.5593</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>30.5654</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
         <v>51.8544</v>
       </c>
-      <c r="K17" t="n">
+      <c r="U17" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.2478</v>
       </c>
-      <c r="L17" t="n">
+      <c r="W17" t="n">
+        <v>46.3643</v>
+      </c>
+      <c r="X17" t="n">
         <v>31.4259</v>
       </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="Y17" t="n">
+        <v>1.2477</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
         <v>32.2175</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="n">
+        <v>1.4752</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>48.296</v>
+      </c>
+      <c r="AE17" t="n">
         <v>31.9966</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>22.1582</v>
       </c>
     </row>
     <row r="18">
@@ -1086,35 +1832,77 @@
         <v>44862</v>
       </c>
       <c r="B18" t="n">
+        <v>51.0223</v>
+      </c>
+      <c r="C18" t="n">
         <v>48.4262</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>4.8104</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>0.526</v>
-      </c>
+      <c r="E18" t="n">
+        <v>5.3279</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>44.7018</v>
+      </c>
       <c r="J18" t="n">
+        <v>0.1527</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>0.1527</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>55.9769</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.1612</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>38.3473</v>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
         <v>55.2303</v>
       </c>
-      <c r="K18" t="n">
+      <c r="U18" t="n">
+        <v>17.4529</v>
+      </c>
+      <c r="V18" t="n">
         <v>0.0509</v>
       </c>
-      <c r="L18" t="n">
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
         <v>46.6107</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="Y18" t="n">
+        <v>0.0764</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
         <v>46.3771</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>0.0848</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>56.3672</v>
+      </c>
+      <c r="AE18" t="n">
         <v>10.5201</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.0594</v>
       </c>
     </row>
     <row r="19">
@@ -1122,1058 +1910,1760 @@
         <v>44864</v>
       </c>
       <c r="B19" t="n">
+        <v>47.2364</v>
+      </c>
+      <c r="C19" t="n">
         <v>44.8243</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.008</v>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>1.0464</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>41.9602</v>
+      </c>
       <c r="J19" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.0464</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>0.2077</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>52.2725</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.07190000000000001</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>36.4885</v>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
         <v>46.4254</v>
       </c>
-      <c r="K19" t="n">
+      <c r="U19" t="n">
+        <v>7.8514</v>
+      </c>
+      <c r="V19" t="n">
         <v>18.3866</v>
       </c>
-      <c r="L19" t="n">
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
         <v>34.0922</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
         <v>38.0272</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>3.275</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>36.9359</v>
+      </c>
+      <c r="AE19" t="n">
         <v>44.3051</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.6709000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>45010</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
         <v>49.3426</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>33.3262</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>33.8001</v>
-      </c>
+      <c r="E20" t="n">
+        <v>6.4671</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>56.6054</v>
+      </c>
       <c r="J20" t="n">
+        <v>49.8076</v>
+      </c>
+      <c r="K20" t="n">
+        <v>33.8001</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>45.0075</v>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
         <v>60.2138</v>
       </c>
-      <c r="K20" t="n">
+      <c r="U20" t="n">
+        <v>46.8413</v>
+      </c>
+      <c r="V20" t="n">
         <v>37.6977</v>
       </c>
-      <c r="L20" t="n">
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
         <v>45.3826</v>
       </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
         <v>45.7995</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>2.8858</v>
+      </c>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="n">
         <v>40.015</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>45035</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
         <v>47.4934</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>62.2017</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
+      <c r="E21" t="n">
+        <v>3.8712</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>38.7347</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>43.8735</v>
+      </c>
+      <c r="X21" t="n">
         <v>39.8355</v>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>45156</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
         <v>39.6327</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>17.8201</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>26.3963</v>
+      </c>
+      <c r="G22" t="n">
         <v>22.3686</v>
       </c>
-      <c r="E22" t="n">
+      <c r="H22" t="n">
         <v>25.4697</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
+        <v>32.1262</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>24.7981</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>13.7125</v>
       </c>
-      <c r="I22" t="n">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>20.2499</v>
+      </c>
+      <c r="R22" t="n">
         <v>17.548</v>
       </c>
-      <c r="J22" t="n">
+      <c r="S22" t="n">
+        <v>37.2354</v>
+      </c>
+      <c r="T22" t="n">
         <v>52.0445</v>
       </c>
-      <c r="K22" t="n">
+      <c r="U22" t="n">
+        <v>19.8249</v>
+      </c>
+      <c r="V22" t="n">
         <v>9.1829</v>
       </c>
-      <c r="L22" t="n">
+      <c r="W22" t="n">
+        <v>23.965</v>
+      </c>
+      <c r="X22" t="n">
         <v>22.5283</v>
       </c>
-      <c r="M22" t="n">
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="n">
         <v>13.0239</v>
       </c>
-      <c r="N22" t="n">
+      <c r="AA22" t="n">
         <v>29.2442</v>
       </c>
-      <c r="O22" t="n">
+      <c r="AB22" t="n">
         <v>23.4144</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="n">
         <v>14.6391</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>45159</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
         <v>36.4273</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>0.3184</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>24.8945</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.2866</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>0.3662</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
+        <v>38.8584</v>
+      </c>
+      <c r="J23" t="n">
+        <v>22.6715</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.5493</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>40.5939</v>
       </c>
-      <c r="I23" t="n">
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>26.6858</v>
+      </c>
+      <c r="R23" t="n">
         <v>7.8252</v>
       </c>
-      <c r="J23" t="n">
+      <c r="S23" t="n">
+        <v>46.7919</v>
+      </c>
+      <c r="T23" t="n">
         <v>37.2871</v>
       </c>
-      <c r="K23" t="n">
+      <c r="U23" t="n">
+        <v>9.7676</v>
+      </c>
+      <c r="V23" t="n">
         <v>19.6545</v>
       </c>
-      <c r="L23" t="n">
+      <c r="W23" t="n">
+        <v>39.4793</v>
+      </c>
+      <c r="X23" t="n">
         <v>22.6097</v>
       </c>
-      <c r="M23" t="n">
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="n">
         <v>19.1689</v>
       </c>
-      <c r="N23" t="n">
+      <c r="AA23" t="n">
         <v>27.2488</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="n">
         <v>0.0955</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>45163</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
         <v>31.1094</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>1.495</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>44.6844</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.2666</v>
       </c>
-      <c r="E24" t="n">
+      <c r="H24" t="n">
         <v>2.1872</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
+        <v>33.511</v>
+      </c>
+      <c r="J24" t="n">
+        <v>17.7602</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.9067</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>38.9466</v>
       </c>
-      <c r="I24" t="n">
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>34.0878</v>
+      </c>
+      <c r="R24" t="n">
         <v>0.9966</v>
       </c>
-      <c r="J24" t="n">
+      <c r="S24" t="n">
+        <v>38.0511</v>
+      </c>
+      <c r="T24" t="n">
         <v>41.2693</v>
       </c>
-      <c r="K24" t="n">
+      <c r="U24" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="V24" t="n">
         <v>12.7414</v>
       </c>
-      <c r="L24" t="n">
+      <c r="W24" t="n">
+        <v>19.7245</v>
+      </c>
+      <c r="X24" t="n">
         <v>31.7531</v>
       </c>
-      <c r="M24" t="n">
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="n">
         <v>0.8928</v>
       </c>
-      <c r="N24" t="n">
+      <c r="AA24" t="n">
         <v>31.16</v>
       </c>
-      <c r="O24" t="n">
+      <c r="AB24" t="n">
         <v>23.974</v>
       </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>45165</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
         <v>34.5358</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>43.6821</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.5585</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>6.0604</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
+        <v>37.8972</v>
+      </c>
+      <c r="J25" t="n">
+        <v>24.9981</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>32.4075</v>
       </c>
-      <c r="I25" t="n">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="R25" t="n">
         <v>0.09810000000000001</v>
       </c>
-      <c r="J25" t="n">
+      <c r="S25" t="n">
+        <v>49.5472</v>
+      </c>
+      <c r="T25" t="n">
         <v>46.717</v>
       </c>
-      <c r="K25" t="n">
+      <c r="U25" t="n">
+        <v>25.8038</v>
+      </c>
+      <c r="V25" t="n">
         <v>29.2604</v>
       </c>
-      <c r="L25" t="n">
+      <c r="W25" t="n">
+        <v>21.3057</v>
+      </c>
+      <c r="X25" t="n">
         <v>32.1685</v>
       </c>
-      <c r="M25" t="n">
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="n">
         <v>25.8038</v>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="n">
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="n">
         <v>15.7434</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="n">
         <v>0.4453</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>45170</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
         <v>28.3985</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+        <v>35.7748</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>26.4448</v>
+      </c>
+      <c r="J26" t="n">
+        <v>28.5449</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>39.3152</v>
       </c>
-      <c r="I26" t="n">
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>27.297</v>
+      </c>
+      <c r="R26" t="n">
         <v>0.0149</v>
       </c>
-      <c r="J26" t="n">
+      <c r="S26" t="n">
+        <v>47.1737</v>
+      </c>
+      <c r="T26" t="n">
         <v>39.3552</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>10.4665</v>
+      </c>
+      <c r="X26" t="n">
         <v>27.3787</v>
       </c>
-      <c r="M26" t="n">
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
         <v>36.8222</v>
       </c>
-      <c r="N26" t="n">
+      <c r="AA26" t="n">
         <v>21.3936</v>
       </c>
-      <c r="O26" t="n">
+      <c r="AB26" t="n">
         <v>25.4624</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>45172</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
         <v>21.0696</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>0.0443</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>10.6835</v>
+      </c>
+      <c r="G27" t="n">
         <v>13.0443</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>4.6016</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
+        <v>19.3113</v>
+      </c>
+      <c r="J27" t="n">
+        <v>17.4009</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>13.0388</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>39.6291</v>
+      </c>
+      <c r="T27" t="n">
         <v>33.1582</v>
       </c>
-      <c r="K27" t="n">
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="n">
         <v>5.8425</v>
       </c>
-      <c r="L27" t="n">
+      <c r="W27" t="n">
+        <v>37.8695</v>
+      </c>
+      <c r="X27" t="n">
         <v>23.6076</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
         <v>32.6772</v>
       </c>
-      <c r="N27" t="n">
+      <c r="AA27" t="n">
         <v>8.7532</v>
       </c>
-      <c r="O27" t="n">
+      <c r="AB27" t="n">
         <v>26.1519</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>45177</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
         <v>34.3354</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
+        <v>41.586</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>22.4801</v>
+      </c>
+      <c r="J28" t="n">
+        <v>31.5289</v>
+      </c>
+      <c r="K28" t="n">
         <v>8.186999999999999</v>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>39.976</v>
       </c>
-      <c r="I28" t="n">
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>24.2634</v>
+      </c>
+      <c r="R28" t="n">
         <v>0.0514</v>
       </c>
-      <c r="J28" t="n">
+      <c r="S28" t="n">
+        <v>56.3244</v>
+      </c>
+      <c r="T28" t="n">
         <v>51.0576</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="U28" t="n">
+        <v>0.0257</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>16.4426</v>
+      </c>
+      <c r="X28" t="n">
         <v>33.1107</v>
       </c>
-      <c r="M28" t="n">
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
         <v>39.2909</v>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="n">
         <v>29.0229</v>
       </c>
-      <c r="P28" t="n">
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="n">
         <v>7.0315</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>45179</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
         <v>28.4172</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>0.0476</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>32.1792</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.0428</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>0.0048</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>9.0792</v>
+      </c>
+      <c r="J29" t="n">
+        <v>24.2557</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.0618</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>30.3101</v>
       </c>
-      <c r="I29" t="n">
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="n">
         <v>0.3139</v>
       </c>
-      <c r="J29" t="n">
+      <c r="S29" t="n">
+        <v>33.6076</v>
+      </c>
+      <c r="T29" t="n">
         <v>30.7396</v>
       </c>
-      <c r="K29" t="n">
+      <c r="U29" t="n">
+        <v>0.1094</v>
+      </c>
+      <c r="V29" t="n">
         <v>7.6008</v>
       </c>
-      <c r="L29" t="n">
+      <c r="W29" t="n">
+        <v>9.4026</v>
+      </c>
+      <c r="X29" t="n">
         <v>31.6751</v>
       </c>
-      <c r="M29" t="n">
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
         <v>19.2761</v>
       </c>
-      <c r="N29" t="n">
+      <c r="AA29" t="n">
         <v>26.5338</v>
       </c>
-      <c r="O29" t="n">
+      <c r="AB29" t="n">
         <v>24.0095</v>
       </c>
-      <c r="P29" t="n">
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="n">
         <v>0.3995</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>45184</v>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
         <v>0.0163</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+        <v>36.8768</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>21.098</v>
+      </c>
+      <c r="J30" t="n">
+        <v>17.9585</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>41.8219</v>
       </c>
-      <c r="I30" t="n">
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
         <v>0.0163</v>
       </c>
-      <c r="J30" t="n">
+      <c r="S30" t="n">
+        <v>55.4137</v>
+      </c>
+      <c r="T30" t="n">
         <v>43.351</v>
       </c>
-      <c r="K30" t="n">
+      <c r="U30" t="n">
+        <v>6.5967</v>
+      </c>
+      <c r="V30" t="n">
         <v>11.6877</v>
       </c>
-      <c r="L30" t="n">
+      <c r="W30" t="n">
+        <v>31.6714</v>
+      </c>
+      <c r="X30" t="n">
         <v>41.7161</v>
       </c>
-      <c r="M30" t="n">
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
         <v>0.0081</v>
       </c>
-      <c r="N30" t="n">
+      <c r="AA30" t="n">
         <v>24.6686</v>
       </c>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="n">
         <v>19.4307</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>45186</v>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
         <v>0.5532</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>35.7306</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.0295</v>
       </c>
-      <c r="E31" t="n">
+      <c r="H31" t="n">
         <v>0.0074</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
+        <v>10.3629</v>
+      </c>
+      <c r="J31" t="n">
+        <v>21.9296</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>40.8129</v>
       </c>
-      <c r="I31" t="n">
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="n">
         <v>0.627</v>
       </c>
-      <c r="J31" t="n">
+      <c r="S31" t="n">
+        <v>49.7861</v>
+      </c>
+      <c r="T31" t="n">
         <v>45.0656</v>
       </c>
-      <c r="K31" t="n">
+      <c r="U31" t="n">
+        <v>13.6313</v>
+      </c>
+      <c r="V31" t="n">
         <v>13.3501</v>
       </c>
-      <c r="L31" t="n">
+      <c r="W31" t="n">
+        <v>12.2667</v>
+      </c>
+      <c r="X31" t="n">
         <v>38.6323</v>
       </c>
-      <c r="M31" t="n">
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
         <v>44.3644</v>
       </c>
-      <c r="N31" t="n">
+      <c r="AA31" t="n">
         <v>36.4139</v>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="n">
         <v>12.1782</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>45191</v>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
         <v>9.8659</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>41.823</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.5581</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>15.6332</v>
+      </c>
+      <c r="J32" t="n">
+        <v>18.1367</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>32.6926</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>26.459</v>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>47.8298</v>
+      </c>
+      <c r="T32" t="n">
         <v>40.789</v>
       </c>
-      <c r="K32" t="n">
+      <c r="U32" t="n">
+        <v>12.532</v>
+      </c>
+      <c r="V32" t="n">
         <v>22.5081</v>
       </c>
-      <c r="L32" t="n">
+      <c r="W32" t="n">
+        <v>23.5777</v>
+      </c>
+      <c r="X32" t="n">
         <v>33.5736</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
         <v>18.129</v>
       </c>
-      <c r="O32" t="n">
+      <c r="AB32" t="n">
         <v>29.9233</v>
       </c>
-      <c r="P32" t="n">
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="n">
         <v>2.9765</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>45198</v>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
         <v>18.75</v>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>28.5012</v>
+      </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>23.8117</v>
+      </c>
+      <c r="J33" t="n">
+        <v>18.3891</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>38.7131</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>34.9893</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>49.57</v>
+      </c>
+      <c r="T33" t="n">
         <v>41.0473</v>
       </c>
-      <c r="K33" t="n">
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>15.296</v>
       </c>
-      <c r="L33" t="n">
+      <c r="W33" t="n">
+        <v>22.654</v>
+      </c>
+      <c r="X33" t="n">
         <v>36.0565</v>
       </c>
-      <c r="M33" t="n">
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
         <v>46.3375</v>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="n">
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="n">
         <v>32.7933</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>45200</v>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
         <v>40.215</v>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>35.3042</v>
+      </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="n">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>27.2673</v>
+      </c>
+      <c r="J34" t="n">
+        <v>7.7468</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>35.1476</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>45.7942</v>
+      </c>
+      <c r="T34" t="n">
         <v>24.6289</v>
       </c>
-      <c r="K34" t="n">
+      <c r="U34" t="n">
+        <v>26.6166</v>
+      </c>
+      <c r="V34" t="n">
         <v>33.1172</v>
       </c>
-      <c r="L34" t="n">
+      <c r="W34" t="n">
+        <v>35.4035</v>
+      </c>
+      <c r="X34" t="n">
         <v>26.1815</v>
       </c>
-      <c r="M34" t="n">
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
         <v>39.251</v>
       </c>
-      <c r="N34" t="n">
+      <c r="AA34" t="n">
         <v>34.0329</v>
       </c>
-      <c r="O34" t="n">
+      <c r="AB34" t="n">
         <v>20.3464</v>
       </c>
-      <c r="P34" t="n">
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="n">
         <v>29.2211</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>45205</v>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
         <v>0.3044</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>40.0028</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.3328</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>17.5883</v>
+      </c>
+      <c r="J35" t="n">
+        <v>32.6984</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>36.175</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>33.6732</v>
+      </c>
+      <c r="T35" t="n">
         <v>45.2524</v>
       </c>
-      <c r="K35" t="n">
+      <c r="U35" t="n">
+        <v>0.9984</v>
+      </c>
+      <c r="V35" t="n">
         <v>4.3614</v>
       </c>
-      <c r="L35" t="n">
+      <c r="W35" t="n">
+        <v>21.6157</v>
+      </c>
+      <c r="X35" t="n">
         <v>35.9105</v>
       </c>
-      <c r="M35" t="n">
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
         <v>44.1589</v>
       </c>
-      <c r="N35" t="n">
+      <c r="AA35" t="n">
         <v>38.7496</v>
       </c>
-      <c r="O35" t="n">
+      <c r="AB35" t="n">
         <v>40.5197</v>
       </c>
-      <c r="P35" t="n">
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="n">
         <v>15.2506</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>45207</v>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
         <v>1.2839</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>0.0649</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>33.266</v>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
+        <v>0.0649</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.123699999999999</v>
+      </c>
+      <c r="J36" t="n">
+        <v>15.176</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>39.7721</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>51.0964</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
         <v>27.7894</v>
       </c>
-      <c r="L36" t="n">
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
         <v>34.1724</v>
       </c>
-      <c r="M36" t="n">
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
         <v>49.5023</v>
       </c>
-      <c r="N36" t="n">
+      <c r="AA36" t="n">
         <v>40.4327</v>
       </c>
-      <c r="O36" t="n">
+      <c r="AB36" t="n">
         <v>33.5016</v>
       </c>
-      <c r="P36" t="n">
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="n">
         <v>21.0386</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>45212</v>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>13.0314</v>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>33.6364</v>
+      </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>19.5943</v>
+      </c>
+      <c r="J37" t="n">
+        <v>30.5387</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>35.3001</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>51.1616</v>
+      </c>
+      <c r="T37" t="n">
         <v>36.5037</v>
       </c>
-      <c r="K37" t="n">
+      <c r="U37" t="n">
+        <v>13.5185</v>
+      </c>
+      <c r="V37" t="n">
         <v>22.0941</v>
       </c>
-      <c r="L37" t="n">
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="n">
         <v>39.155</v>
       </c>
-      <c r="M37" t="n">
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
         <v>42.5673</v>
       </c>
-      <c r="N37" t="n">
+      <c r="AA37" t="n">
         <v>35.1822</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="n">
         <v>11.6236</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>45219</v>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
         <v>9.840299999999999</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>23.0351</v>
+      </c>
+      <c r="G38" t="n">
         <v>9.779500000000001</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.9486</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>40.7587</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>51.6836</v>
+      </c>
+      <c r="T38" t="n">
         <v>47.4043</v>
       </c>
-      <c r="K38" t="n">
+      <c r="U38" t="n">
+        <v>7.377</v>
+      </c>
+      <c r="V38" t="n">
         <v>23.4166</v>
       </c>
-      <c r="L38" t="n">
+      <c r="W38" t="n">
+        <v>18.2109</v>
+      </c>
+      <c r="X38" t="n">
         <v>38.2962</v>
       </c>
-      <c r="M38" t="n">
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
         <v>47.3851</v>
       </c>
-      <c r="N38" t="n">
+      <c r="AA38" t="n">
         <v>33.8818</v>
       </c>
-      <c r="O38" t="n">
+      <c r="AB38" t="n">
         <v>35.5048</v>
       </c>
-      <c r="P38" t="n">
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="n">
         <v>31.924</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>45221</v>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
         <v>0.0607</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>38.0808</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.1456</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>16.2026</v>
+      </c>
+      <c r="J39" t="n">
+        <v>21.3285</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>33.4102</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>29.3582</v>
+      </c>
+      <c r="T39" t="n">
         <v>30.9657</v>
       </c>
-      <c r="K39" t="n">
+      <c r="U39" t="n">
+        <v>9.5966</v>
+      </c>
+      <c r="V39" t="n">
         <v>8.073499999999999</v>
       </c>
-      <c r="L39" t="n">
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
         <v>29.6373</v>
       </c>
-      <c r="M39" t="n">
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
         <v>38.5661</v>
       </c>
-      <c r="N39" t="n">
+      <c r="AA39" t="n">
         <v>32.3972</v>
       </c>
-      <c r="O39" t="n">
+      <c r="AB39" t="n">
         <v>27.6433</v>
       </c>
-      <c r="P39" t="n">
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="n">
         <v>11.3915</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>45226</v>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
         <v>0.2671</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>46.5181</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.2368</v>
       </c>
-      <c r="E40" t="n">
+      <c r="H40" t="n">
         <v>0.1761</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
+        <v>0.1578</v>
+      </c>
+      <c r="J40" t="n">
+        <v>27.6243</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>31.9167</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>50.6041</v>
+      </c>
+      <c r="T40" t="n">
         <v>45.0522</v>
       </c>
-      <c r="K40" t="n">
+      <c r="U40" t="n">
+        <v>0.09710000000000001</v>
+      </c>
+      <c r="V40" t="n">
         <v>44.3082</v>
       </c>
-      <c r="L40" t="n">
+      <c r="W40" t="n">
+        <v>0.1457</v>
+      </c>
+      <c r="X40" t="n">
         <v>34.1306</v>
       </c>
-      <c r="M40" t="n">
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
         <v>45.0947</v>
       </c>
-      <c r="N40" t="n">
+      <c r="AA40" t="n">
         <v>29.8264</v>
       </c>
-      <c r="O40" t="n">
+      <c r="AB40" t="n">
         <v>36.1059</v>
       </c>
-      <c r="P40" t="n">
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="n">
         <v>12.6153</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>45228</v>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>48.7803</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.009599999999999999</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>26.1691</v>
+      </c>
+      <c r="J41" t="n">
+        <v>30.1996</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>36.4381</v>
       </c>
-      <c r="I41" t="n">
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="n">
         <v>4.0208</v>
       </c>
-      <c r="J41" t="n">
+      <c r="S41" t="n">
+        <v>46.3408</v>
+      </c>
+      <c r="T41" t="n">
         <v>60.0289</v>
       </c>
-      <c r="K41" t="n">
+      <c r="U41" t="n">
+        <v>0.0386</v>
+      </c>
+      <c r="V41" t="n">
         <v>29.3125</v>
       </c>
-      <c r="L41" t="n">
+      <c r="W41" t="n">
+        <v>50.3809</v>
+      </c>
+      <c r="X41" t="n">
         <v>37.4735</v>
       </c>
-      <c r="M41" t="n">
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
         <v>37.1613</v>
       </c>
-      <c r="N41" t="n">
+      <c r="AA41" t="n">
         <v>39.8939</v>
       </c>
-      <c r="O41" t="n">
+      <c r="AB41" t="n">
         <v>33.298</v>
       </c>
-      <c r="P41" t="n">
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="n">
         <v>33.0151</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>45232</v>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
         <v>0</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>45.3846</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>38.2507</v>
+      </c>
+      <c r="J42" t="n">
+        <v>28.9444</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>37.3425</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>54.0463</v>
+      </c>
+      <c r="T42" t="n">
         <v>47.5984</v>
       </c>
-      <c r="K42" t="n">
+      <c r="U42" t="n">
+        <v>0.3355</v>
+      </c>
+      <c r="V42" t="n">
         <v>26.3378</v>
       </c>
-      <c r="L42" t="n">
+      <c r="W42" t="n">
+        <v>3.2894</v>
+      </c>
+      <c r="X42" t="n">
         <v>44.2481</v>
       </c>
-      <c r="M42" t="n">
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
         <v>49.9345</v>
       </c>
-      <c r="N42" t="n">
+      <c r="AA42" t="n">
         <v>32.4442</v>
       </c>
-      <c r="O42" t="n">
+      <c r="AB42" t="n">
         <v>41.728</v>
       </c>
-      <c r="P42" t="n">
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="n">
         <v>15.153</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>45396</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
         <v>36.0241</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
         <v>34.2688</v>
       </c>
-      <c r="E43" t="n">
+      <c r="H43" t="n">
         <v>36.6618</v>
       </c>
-      <c r="F43" t="n">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
         <v>34.0835</v>
       </c>
-      <c r="G43" t="n">
+      <c r="L43" t="n">
         <v>29.8834</v>
       </c>
-      <c r="H43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>33.9832</v>
       </c>
-      <c r="I43" t="n">
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
         <v>32.492</v>
       </c>
-      <c r="J43" t="n">
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
         <v>43.9038</v>
       </c>
-      <c r="K43" t="n">
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="n">
         <v>36.8987</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
         <v>37.0661</v>
       </c>
-      <c r="N43" t="n">
+      <c r="AA43" t="n">
         <v>35.6961</v>
       </c>
-      <c r="O43" t="n">
+      <c r="AB43" t="n">
         <v>39.7048</v>
       </c>
-      <c r="P43" t="n">
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="n">
         <v>28.0911</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2182,38 +3672,54 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
         <v>48.7239</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
         <v>33.4929</v>
       </c>
-      <c r="H44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>31.8798</v>
       </c>
-      <c r="I44" t="n">
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="n">
         <v>24.3708</v>
       </c>
-      <c r="J44" t="n">
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
         <v>38.7751</v>
       </c>
-      <c r="K44" t="n">
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="n">
         <v>29.1741</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
         <v>41.5706</v>
       </c>
-      <c r="N44" t="n">
+      <c r="AA44" t="n">
         <v>32.5445</v>
       </c>
-      <c r="O44" t="n">
+      <c r="AB44" t="n">
         <v>41.115</v>
       </c>
-      <c r="P44" t="n">
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="n">
         <v>42.6622</v>
       </c>
+      <c r="AF44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
